--- a/TNR_JDD/RO/JDD.RO.LIE.xlsx
+++ b/TNR_JDD/RO/JDD.RO.LIE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-828" yWindow="348" windowWidth="5064" windowHeight="7872" activeTab="2"/>
+    <workbookView xWindow="-828" yWindow="348" windowWidth="5064" windowHeight="7872" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="175">
   <si>
     <t>Date</t>
   </si>
@@ -129,37 +129,7 @@
     </r>
   </si>
   <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>a_Fournisseur</t>
-  </si>
-  <si>
-    <t>$TAB$ID_CODFOU</t>
-  </si>
-  <si>
-    <t>a_FournisseurSelected</t>
-  </si>
-  <si>
-    <t>$TABSELECTED$ID_CODFOU</t>
-  </si>
-  <si>
     <t>001</t>
-  </si>
-  <si>
-    <t>input_Filtre_Grille</t>
-  </si>
-  <si>
-    <t>td_Grille</t>
-  </si>
-  <si>
-    <t>$FILTREGRILLE$ID_CODFOU</t>
-  </si>
-  <si>
-    <t>EXEMPLES</t>
-  </si>
-  <si>
-    <t>$TDGRILLE$ID_CODFOU</t>
   </si>
   <si>
     <t>LIE</t>
@@ -613,7 +583,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -751,18 +721,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,12 +792,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA7E3B7"/>
         <bgColor rgb="FFA7E3B7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -908,7 +867,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -952,14 +911,7 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="11" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="21" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="21" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="21" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="21" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -1230,20 +1182,20 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A2" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>37</v>
+      <c r="A2" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1"/>
@@ -2286,786 +2238,786 @@
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4">
         <v>1475</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75" customHeight="1">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.75" customHeight="1">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75" customHeight="1">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" customHeight="1">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75" customHeight="1">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.75" customHeight="1">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75" customHeight="1">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" customHeight="1">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75" customHeight="1">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75" customHeight="1">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" customHeight="1">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" customHeight="1">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.75" customHeight="1">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75" customHeight="1">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75" customHeight="1">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.75" customHeight="1">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.75" customHeight="1">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12.75" customHeight="1">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12.75" customHeight="1">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12.75" customHeight="1">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12.75" customHeight="1">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12.75" customHeight="1">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12.75" customHeight="1">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12.75" customHeight="1">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12.75" customHeight="1">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="12.75" customHeight="1">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12.75" customHeight="1">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="12.75" customHeight="1">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="12.75" customHeight="1">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="12.75" customHeight="1">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="12.75" customHeight="1">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="12.75" customHeight="1">
       <c r="A51" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="12.75" customHeight="1">
       <c r="A52" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="12.75" customHeight="1">
       <c r="A53" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="12.75" customHeight="1">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="12.75" customHeight="1">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="12.75" customHeight="1">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="12.75" customHeight="1">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="12.75" customHeight="1">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="12.75" customHeight="1">
       <c r="A59" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="12.75" customHeight="1">
       <c r="A60" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="12.75" customHeight="1">
       <c r="A61" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="12.75" customHeight="1">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="12.75" customHeight="1">
       <c r="A63" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B63" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="12.75" customHeight="1">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B64" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="12.75" customHeight="1">
       <c r="A65" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B65" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="12.75" customHeight="1">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12.75" customHeight="1">
       <c r="A67" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B67" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="12.75" customHeight="1">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="12.75" customHeight="1">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="12.75" customHeight="1">
       <c r="A70" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C70" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="12.75" customHeight="1">
       <c r="A71" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="12.75" customHeight="1">
       <c r="A72" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B72" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C72" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="12.75" customHeight="1">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B73" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="12.75" customHeight="1"/>
@@ -3888,7 +3840,7 @@
   </sheetPr>
   <dimension ref="A1:BS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
@@ -3903,217 +3855,217 @@
   <sheetData>
     <row r="1" spans="1:71" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="F1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>59</v>
-      </c>
       <c r="L1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>76</v>
-      </c>
       <c r="T1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="U1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>89</v>
-      </c>
       <c r="Z1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE1" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AF1" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AG1" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AH1" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AI1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AJ1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AK1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AL1" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AM1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="AI1" s="18" t="s">
+      <c r="AN1" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="AJ1" s="18" t="s">
+      <c r="AO1" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AK1" s="18" t="s">
+      <c r="AP1" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="AL1" s="18" t="s">
+      <c r="AQ1" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="AM1" s="18" t="s">
+      <c r="AR1" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="AN1" s="18" t="s">
+      <c r="AS1" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="AO1" s="18" t="s">
+      <c r="AT1" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="AP1" s="18" t="s">
+      <c r="AU1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="AQ1" s="18" t="s">
+      <c r="AV1" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="AR1" s="18" t="s">
+      <c r="AW1" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="AS1" s="18" t="s">
+      <c r="AX1" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="AT1" s="18" t="s">
+      <c r="AY1" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="AU1" s="18" t="s">
+      <c r="AZ1" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="AV1" s="18" t="s">
+      <c r="BA1" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="AW1" s="18" t="s">
+      <c r="BB1" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="AX1" s="18" t="s">
+      <c r="BC1" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="AY1" s="18" t="s">
+      <c r="BD1" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="AZ1" s="18" t="s">
+      <c r="BE1" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="BA1" s="18" t="s">
+      <c r="BF1" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="BB1" s="18" t="s">
+      <c r="BG1" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="BC1" s="18" t="s">
+      <c r="BH1" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="BD1" s="18" t="s">
+      <c r="BI1" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="BE1" s="18" t="s">
+      <c r="BJ1" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="BF1" s="18" t="s">
+      <c r="BK1" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="BG1" s="18" t="s">
+      <c r="BL1" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="BH1" s="18" t="s">
+      <c r="BM1" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="BI1" s="18" t="s">
+      <c r="BN1" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="BJ1" s="18" t="s">
+      <c r="BO1" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="BP1" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="BK1" s="18" t="s">
+      <c r="BQ1" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="BL1" s="18" t="s">
+      <c r="BR1" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="BM1" s="18" t="s">
+      <c r="BS1" s="18" t="s">
         <v>170</v>
-      </c>
-      <c r="BN1" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="BO1" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="BP1" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="BQ1" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="BR1" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="BS1" s="18" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:71" ht="13.2">
@@ -7480,11 +7432,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13:B14"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -7502,55 +7454,6 @@
       </c>
       <c r="C1" s="17" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
